--- a/1233.xlsx
+++ b/1233.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gajula's\Desktop\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gajula's\Desktop\pull\git.demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064D4F08-DE2B-409E-8346-9C4AC420C5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC354F05-576A-4214-A377-275E3A1982C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>numer</t>
   </si>
   <si>
-    <t>nikhil</t>
+    <t>nik</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
